--- a/截图用表格/系统码表.xlsx
+++ b/截图用表格/系统码表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>用户类型(user_type)</t>
   </si>
@@ -39,12 +39,6 @@
     <t>M(manager)</t>
   </si>
   <si>
-    <t>超级管理员</t>
-  </si>
-  <si>
-    <t>A(administrator)</t>
-  </si>
-  <si>
     <t>订单状态(order_status)</t>
   </si>
   <si>
@@ -60,12 +54,6 @@
     <t>w4b_c(waitting_for_buyer_confirm)</t>
   </si>
   <si>
-    <t>卖家发回，等待买家处理</t>
-  </si>
-  <si>
-    <t>b_w4b_p(back_waitting_for_buyer_process)</t>
-  </si>
-  <si>
     <t>已完成</t>
   </si>
   <si>
@@ -111,33 +99,6 @@
     <t>bag</t>
   </si>
   <si>
-    <t>包装方式(package_type)</t>
-  </si>
-  <si>
-    <t>散装</t>
-  </si>
-  <si>
-    <t>in_bulk</t>
-  </si>
-  <si>
-    <t>箱装</t>
-  </si>
-  <si>
-    <t>in_box</t>
-  </si>
-  <si>
-    <t>框装</t>
-  </si>
-  <si>
-    <t>in_case</t>
-  </si>
-  <si>
-    <t>袋装</t>
-  </si>
-  <si>
-    <t>in_bag</t>
-  </si>
-  <si>
     <t>商品状态(good_status)</t>
   </si>
   <si>
@@ -157,6 +118,30 @@
   </si>
   <si>
     <t>stockout</t>
+  </si>
+  <si>
+    <t>用户状态(good_status)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>using</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>locked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已锁定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺状态(good_status)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -229,10 +214,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,225 +520,210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="K18:M38"/>
+  <dimension ref="K18:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G17" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView tabSelected="1" topLeftCell="G16" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35:K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="21.25" customWidth="1"/>
-    <col min="13" max="13" width="40.625" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
+    <col min="13" max="13" width="34.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="18" spans="11:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="11:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K19" s="1"/>
-      <c r="L19" s="2" t="s">
+      <c r="K19" s="2"/>
+      <c r="L19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="M19" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="11:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K20" s="1"/>
-      <c r="L20" s="2" t="s">
+      <c r="K20" s="2"/>
+      <c r="L20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="11:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K21" s="1"/>
-      <c r="L21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="L21" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="M21" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="22" spans="11:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L22" s="2" t="s">
+      <c r="K22" s="2"/>
+      <c r="L22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="11:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K23" s="1"/>
-      <c r="L23" s="2" t="s">
+      <c r="K23" s="2"/>
+      <c r="L23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="11:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K24" s="1"/>
-      <c r="L24" s="2" t="s">
+      <c r="K24" s="2"/>
+      <c r="L24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="11:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K25" s="1"/>
-      <c r="L25" s="2" t="s">
+      <c r="K25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="L25" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="M25" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="26" spans="11:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K26" s="1"/>
-      <c r="L26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M26" s="2" t="s">
+      <c r="K26" s="2"/>
+      <c r="L26" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="M26" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="27" spans="11:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" s="2" t="s">
+      <c r="K27" s="2"/>
+      <c r="L27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="11:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K28" s="1"/>
-      <c r="L28" s="2" t="s">
+      <c r="K28" s="2"/>
+      <c r="L28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="29" spans="11:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K29" s="1"/>
-      <c r="L29" s="2" t="s">
+      <c r="K29" s="2"/>
+      <c r="L29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="11:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K30" s="1"/>
-      <c r="L30" s="2" t="s">
+      <c r="K30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="L30" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="M30" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="31" spans="11:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K31" s="1"/>
-      <c r="L31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M31" s="2" t="s">
+      <c r="K31" s="2"/>
+      <c r="L31" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="M31" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="32" spans="11:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L32" s="2" t="s">
+      <c r="K32" s="2"/>
+      <c r="L32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="33" spans="11:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K33" s="1"/>
-      <c r="L33" s="2" t="s">
+      <c r="K33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M33" s="2" t="s">
+      <c r="L33" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="M33" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="34" spans="11:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K34" s="1"/>
-      <c r="L34" s="2" t="s">
+      <c r="K34" s="2"/>
+      <c r="L34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="11:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M35" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M34" s="2" t="s">
+    </row>
+    <row r="36" spans="11:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K36" s="2"/>
+      <c r="L36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M36" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="11:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K35" s="1"/>
-      <c r="L35" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="11:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K36" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="11:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K37" s="1"/>
-      <c r="L37" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="11:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K38" s="1"/>
-      <c r="L38" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="K18:K21"/>
-    <mergeCell ref="K22:K26"/>
-    <mergeCell ref="K27:K31"/>
-    <mergeCell ref="K32:K35"/>
-    <mergeCell ref="K36:K38"/>
+  <mergeCells count="6">
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="K25:K29"/>
+    <mergeCell ref="K30:K32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/截图用表格/系统码表.xlsx
+++ b/截图用表格/系统码表.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView windowWidth="20385" windowHeight="9540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>用户类型(user_type)</t>
   </si>
@@ -66,39 +66,6 @@
     <t>canceled</t>
   </si>
   <si>
-    <t>计价单位(valuable_unit)</t>
-  </si>
-  <si>
-    <t>千克</t>
-  </si>
-  <si>
-    <t>kilogram</t>
-  </si>
-  <si>
-    <t>个</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>箱</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>框</t>
-  </si>
-  <si>
-    <t>case</t>
-  </si>
-  <si>
-    <t>袋</t>
-  </si>
-  <si>
-    <t>bag</t>
-  </si>
-  <si>
     <t>商品状态(good_status)</t>
   </si>
   <si>
@@ -121,66 +88,394 @@
   </si>
   <si>
     <t>用户状态(good_status)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>正在使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>using</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已锁定</t>
   </si>
   <si>
     <t>locked</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已锁定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>店铺状态(good_status)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -190,22 +485,264 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -213,23 +750,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -519,242 +1098,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="K18:M36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="K18:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G16" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35:K36"/>
+      <selection activeCell="G25" sqref="$A25:$XFD29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.1" customHeight="1"/>
   <cols>
     <col min="11" max="11" width="16" customWidth="1"/>
     <col min="12" max="12" width="12.5" customWidth="1"/>
     <col min="13" max="13" width="34.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="18" spans="11:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K18" s="2" t="s">
+    <row r="18" customHeight="1" spans="11:13">
+      <c r="K18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="11:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K19" s="2"/>
-      <c r="L19" s="1" t="s">
+    <row r="19" customHeight="1" spans="11:13">
+      <c r="K19" s="1"/>
+      <c r="L19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M19" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="11:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K20" s="2"/>
-      <c r="L20" s="1" t="s">
+    <row r="20" customHeight="1" spans="11:13">
+      <c r="K20" s="1"/>
+      <c r="L20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="M20" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="11:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K21" s="2" t="s">
+    <row r="21" customHeight="1" spans="11:13">
+      <c r="K21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="L21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="M21" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="11:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K22" s="2"/>
-      <c r="L22" s="1" t="s">
+    <row r="22" customHeight="1" spans="11:13">
+      <c r="K22" s="1"/>
+      <c r="L22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M22" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="11:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K23" s="2"/>
-      <c r="L23" s="1" t="s">
+    <row r="23" customHeight="1" spans="11:13">
+      <c r="K23" s="1"/>
+      <c r="L23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="M23" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="11:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K24" s="2"/>
-      <c r="L24" s="1" t="s">
+    <row r="24" customHeight="1" spans="11:13">
+      <c r="K24" s="1"/>
+      <c r="L24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="M24" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="11:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K25" s="2" t="s">
+    <row r="25" customHeight="1" spans="11:13">
+      <c r="K25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="M25" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="11:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K26" s="2"/>
-      <c r="L26" s="1" t="s">
+    <row r="26" customHeight="1" spans="11:13">
+      <c r="K26" s="1"/>
+      <c r="L26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="M26" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="11:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K27" s="2"/>
-      <c r="L27" s="1" t="s">
+    <row r="27" customHeight="1" spans="11:13">
+      <c r="K27" s="1"/>
+      <c r="L27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="M27" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="11:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K28" s="2"/>
-      <c r="L28" s="1" t="s">
+    <row r="28" customHeight="1" spans="11:13">
+      <c r="K28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="L28" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="11:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K29" s="2"/>
-      <c r="L29" s="1" t="s">
+      <c r="M28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M29" s="1" t="s">
+    </row>
+    <row r="29" customHeight="1" spans="11:13">
+      <c r="K29" s="1"/>
+      <c r="L29" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="11:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K30" s="2" t="s">
+      <c r="M29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L30" s="1" t="s">
+    </row>
+    <row r="30" customHeight="1" spans="11:13">
+      <c r="K30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M30" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="11:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K31" s="2"/>
-      <c r="L31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="11:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K32" s="2"/>
-      <c r="L32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="11:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="11:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K34" s="2"/>
-      <c r="L34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="11:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K35" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="11:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="K36" s="2"/>
-      <c r="L36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>37</v>
+      <c r="L30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="11:13">
+      <c r="K31" s="1"/>
+      <c r="L31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="K35:K36"/>
+  <mergeCells count="5">
     <mergeCell ref="K18:K20"/>
     <mergeCell ref="K21:K24"/>
-    <mergeCell ref="K25:K29"/>
-    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K30:K31"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>